--- a/example-data/poblacion_comunas.xlsx
+++ b/example-data/poblacion_comunas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13c0fce16975a509/Proyectos R/hazla-con-datos/example-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{39278C50-D6C3-4AC7-A123-1CCAC4A6D98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{352E0948-4E73-47CD-B6B3-CB5673421C77}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{39278C50-D6C3-4AC7-A123-1CCAC4A6D98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC02530C-7EA1-41FF-867A-368A2A5C2BD0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1643,6 +1643,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
@@ -1942,11 +1946,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
